--- a/testdata/test_opera_case_api.xlsx
+++ b/testdata/test_opera_case_api.xlsx
@@ -61,7 +61,7 @@
     <t>运营</t>
   </si>
   <si>
-    <t>api/sendSms</t>
+    <t>/api/sendSms</t>
   </si>
   <si>
     <t>发送验证码</t>
@@ -82,7 +82,7 @@
     <t>passed</t>
   </si>
   <si>
-    <t>api/phoneLogin</t>
+    <t>/api/phoneLogin</t>
   </si>
   <si>
     <t>登录</t>
@@ -91,7 +91,7 @@
     <t>{"code":666666,"phone":"13600136002"}</t>
   </si>
   <si>
-    <t>api/auditBasisIndemnity</t>
+    <t>/api/auditBasisIndemnity</t>
   </si>
   <si>
     <t>违约金审核列表</t>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
